--- a/Admin/score card.xlsx
+++ b/Admin/score card.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfp53502\Documents\GitHub\fortnight_challenge\Admin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Group A</t>
   </si>
@@ -39,17 +38,38 @@
     <t>Group D</t>
   </si>
   <si>
-    <t>Group E</t>
-  </si>
-  <si>
-    <t>C1_ranking</t>
+    <t xml:space="preserve">C1: Four classes (ABCD) Average speed below 50 is D, 51:60 C, 61:70 B,&gt;71 A  C2: Number of right/total questions     C3: Number of right code     </t>
+  </si>
+  <si>
+    <t>C1 points</t>
+  </si>
+  <si>
+    <t>C2 points</t>
+  </si>
+  <si>
+    <t>C3 points</t>
+  </si>
+  <si>
+    <t>typing speed</t>
+  </si>
+  <si>
+    <t>logical reasoning</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>Total Score</t>
+  </si>
+  <si>
+    <t>Ranking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -57,13 +77,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,14 +137,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,53 +486,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
+      <c r="E2">
+        <f>IF(B2&gt;=71,10,IF(B2&gt;=61,7.5,IF(B2&gt;51,5,IF(B2&gt;41,2.5,0))))</f>
+        <v>2.5</v>
+      </c>
+      <c r="F2">
+        <f>ROUND(40*C2/6,0)</f>
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <f>ROUND(50*D2/2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:G2)</f>
+        <v>60.5</v>
+      </c>
+      <c r="I2" s="5">
+        <f>RANK(H2,$H$2:$H$5)</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">IF(B3&gt;=71,10,IF(B3&gt;=61,7.5,IF(B3&gt;51,5,IF(B3&gt;41,2.5,0))))</f>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">ROUND(40*C3/6,0)</f>
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="2">ROUND(50*D3/2,0)</f>
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H5" si="3">SUM(E3:G3)</f>
+        <v>82</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I5" si="4">RANK(H3,$H$2:$H$5)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>72.5</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I2:I5">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+      <formula1>0</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>0</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{329F34EC-620A-4CE0-B78F-D4761614BA58}">
+            <x14:iconSet iconSet="5Boxes">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="2" id="{BCDC8B94-0145-41C2-B37F-AD72A93B7560}">
+            <x14:iconSet iconSet="3Stars">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <x14:cfRule type="iconSet" priority="1" id="{8EDEB1BA-680B-4355-A67C-F4F491733B37}">
+            <x14:iconSet iconSet="3Stars" reverse="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I2:I5</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
